--- a/data.xlsx
+++ b/data.xlsx
@@ -34,10 +34,10 @@
     <x:t>moo</x:t>
   </x:si>
   <x:si>
-    <x:t>Thu Aug 05 2021 17:07:39 GMT-0500 (hora de verano central)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Aug 05 2021 17:07:39 GMT-0500 (hora de verano central)</x:t>
+    <x:t>Thu Aug 05 2021 18:08:35 GMT-0500 (hora de verano central)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Aug 05 2021 18:08:35 GMT-0500 (hora de verano central)</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -34,10 +34,10 @@
     <x:t>moo</x:t>
   </x:si>
   <x:si>
-    <x:t>Thu Aug 05 2021 18:08:35 GMT-0500 (hora de verano central)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Aug 05 2021 18:08:35 GMT-0500 (hora de verano central)</x:t>
+    <x:t>Wed Aug 11 2021 14:41:13 GMT-0500 (hora de verano central)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wed Aug 11 2021 14:41:13 GMT-0500 (hora de verano central)</x:t>
   </x:si>
 </x:sst>
 </file>
